--- a/B_Proyectos/E_Grupo_5/Modelo Estrella.xlsx
+++ b/B_Proyectos/E_Grupo_5/Modelo Estrella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PEDE 8 Airflow\B_Proyectos\E_Grupo_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51A894-595D-4AFC-A86D-1A4DA496E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB873F8-A90C-4E27-A4AF-0FEE358B7C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD9FDC6E-6585-4EF6-9827-2AC8CF0B3C46}"/>
   </bookViews>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A211A1C9-1035-4CE6-98B0-E4C4F578F39F}">
   <dimension ref="B5:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
